--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/15/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.09199999999999</v>
+        <v>-21.18349999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.68250000000001</v>
+        <v>-22.70770000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.18419999999999</v>
+        <v>-20.41029999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.121099999999999</v>
+        <v>-7.406500000000003</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.231400000000001</v>
+        <v>-7.181900000000002</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.6964</v>
+        <v>16.747</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.04480000000001</v>
+        <v>17.08290000000001</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.831399999999991</v>
+        <v>-8.361099999999997</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.81610000000001</v>
+        <v>-21.81380000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.0934</v>
+        <v>16.04340000000001</v>
       </c>
     </row>
     <row r="17">
@@ -763,12 +763,12 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.46290000000001</v>
+        <v>16.3752</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.12899999999999</v>
+        <v>-20.49099999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.528799999999991</v>
+        <v>-7.771899999999995</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.868299999999997</v>
+        <v>-7.901599999999994</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,10 +811,10 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.977100000000002</v>
+        <v>-7.994900000000005</v>
       </c>
       <c r="E22" t="n">
-        <v>16.38110000000001</v>
+        <v>16.3159</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.080099999999996</v>
+        <v>-7.191999999999994</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.0124</v>
+        <v>-22.0165</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.30789999999998</v>
+        <v>-21.36969999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.192300000000002</v>
+        <v>-7.2155</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.12669999999999</v>
+        <v>-21.08889999999998</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.0268</v>
+        <v>-7.963899999999998</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>15.7704</v>
+        <v>15.79900000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.36500000000001</v>
+        <v>-20.42850000000002</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.512200000000002</v>
+        <v>-8.507600000000005</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.338900000000001</v>
+        <v>-8.174300000000001</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.458299999999999</v>
+        <v>-7.597199999999997</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.524099999999997</v>
+        <v>-7.550699999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.84320000000001</v>
+        <v>-21.90110000000002</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1219,10 +1219,10 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.514299999999997</v>
+        <v>-7.638199999999992</v>
       </c>
       <c r="E46" t="n">
-        <v>17.148</v>
+        <v>17.11920000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1287,15 +1287,15 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.641699999999998</v>
+        <v>-8.321899999999994</v>
       </c>
       <c r="E50" t="n">
-        <v>16.6411</v>
+        <v>16.6662</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.9691</v>
+        <v>-21.9949</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.464399999999999</v>
+        <v>-7.529799999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.0953</v>
+        <v>-22.04699999999998</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.66440000000002</v>
+        <v>-22.62320000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.0366</v>
+        <v>-21.92509999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.14030000000001</v>
+        <v>-22.0657</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.4526</v>
+        <v>-21.36079999999999</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1559,7 +1559,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.322499999999999</v>
+        <v>-7.244200000000002</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.540400000000002</v>
+        <v>-6.530800000000004</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.1274</v>
+        <v>-20.06959999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.78809999999999</v>
+        <v>-21.92409999999999</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.286900000000005</v>
+        <v>-6.379000000000007</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-9.0944</v>
+        <v>-8.844100000000005</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.56090000000001</v>
+        <v>-21.5599</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.518500000000001</v>
+        <v>-6.474300000000004</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.89780000000002</v>
+        <v>18.03270000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2086,10 +2086,10 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.961699999999995</v>
+        <v>-8.042699999999996</v>
       </c>
       <c r="E97" t="n">
-        <v>16.8019</v>
+        <v>16.88259999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.00099999999999</v>
+        <v>-22.0322</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
